--- a/data/Experience.xlsx
+++ b/data/Experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56605340-2C0C-6D44-AD9A-5516CBFD4B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF835E83-1526-B940-9557-112CAFD1E770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{3EF3DFDC-7805-FB4D-B2C0-7B5776BF9513}"/>
   </bookViews>
@@ -61,9 +61,6 @@
 Website: https://www.daacs.net</t>
   </si>
   <si>
-    <t>Consultant / Learnin Analyst</t>
-  </si>
-  <si>
     <t>Developed a data system to support Behavior Specialists work with schools within New York State on their implementation of Positive Behavior Interventions and Supports (PBIS). The goal of this website is to consolidate disparate data sources along with custom data entry so that Behavior Specialists can make data based decisions. I also provided statistical support for analyzing the data at the state level.
 Website: https://pbisny.org</t>
   </si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Software developer and website designer for the New York State Attorney General’s Website.</t>
+  </si>
+  <si>
+    <t>Consultant / Learning Analyst</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -587,23 +587,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -612,16 +612,16 @@
         <v>2016</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -632,19 +632,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -655,16 +655,16 @@
         <v>2019</v>
       </c>
       <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -675,16 +675,16 @@
         <v>2015</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -695,16 +695,16 @@
         <v>2015</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -715,16 +715,16 @@
         <v>2014</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -735,16 +735,16 @@
         <v>2010</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -755,16 +755,16 @@
         <v>2011</v>
       </c>
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -775,16 +775,16 @@
         <v>2007</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -795,16 +795,16 @@
         <v>2008</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -815,16 +815,16 @@
         <v>2006</v>
       </c>
       <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -835,16 +835,16 @@
         <v>2004</v>
       </c>
       <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>45</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -855,16 +855,16 @@
         <v>1999</v>
       </c>
       <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/Experience.xlsx
+++ b/data/Experience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/CV/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF835E83-1526-B940-9557-112CAFD1E770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87703834-636E-1A4A-A6C8-E1748FBA98D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{3EF3DFDC-7805-FB4D-B2C0-7B5776BF9513}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{3EF3DFDC-7805-FB4D-B2C0-7B5776BF9513}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Start</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Research Data Associate</t>
-  </si>
-  <si>
-    <t>Associate for the Special Education Technical Assistance Partnership for DATA to support the data needs for specialists and school districts within New York State.</t>
   </si>
   <si>
     <t>Executive Director and Principal Investigator</t>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>present</t>
-  </si>
-  <si>
-    <t>presnt</t>
   </si>
   <si>
     <t>Adjunct Associate Professor</t>
@@ -195,6 +189,15 @@
   </si>
   <si>
     <t>Consultant / Learning Analyst</t>
+  </si>
+  <si>
+    <t>Assistant Professor</t>
+  </si>
+  <si>
+    <t>Assistant Professor in the Data Science and Information Systems department with a two-thirds teaching, one-third adminstration split.</t>
+  </si>
+  <si>
+    <t>Associate for the Special Education Technical Assistance Partnership for DATA to support the data needs for specialists and school districts within New York State. Primary developer of the data.osepartnership.org data dashboard.</t>
   </si>
 </sst>
 </file>
@@ -552,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910A17EE-E0D7-9E41-B6EA-495CBEA2D76E}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -589,13 +592,13 @@
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -604,267 +607,287 @@
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2015</v>
       </c>
       <c r="B5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="1">
         <v>2019</v>
       </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2015</v>
-      </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="B7" s="1">
         <v>2015</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2008</v>
       </c>
       <c r="B9" s="1">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
       <c r="B10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="1">
         <v>2011</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>2004</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>2006</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B16" s="1">
         <v>1999</v>
       </c>
-      <c r="B14" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1997</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1999</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F16" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/Experience.xlsx
+++ b/data/Experience.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/CV/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87703834-636E-1A4A-A6C8-E1748FBA98D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7A19F-2FF7-8A48-8650-D64FEC4DDB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{3EF3DFDC-7805-FB4D-B2C0-7B5776BF9513}"/>
   </bookViews>
@@ -191,13 +191,13 @@
     <t>Consultant / Learning Analyst</t>
   </si>
   <si>
-    <t>Assistant Professor</t>
-  </si>
-  <si>
-    <t>Assistant Professor in the Data Science and Information Systems department with a two-thirds teaching, one-third adminstration split.</t>
-  </si>
-  <si>
     <t>Associate for the Special Education Technical Assistance Partnership for DATA to support the data needs for specialists and school districts within New York State. Primary developer of the data.osepartnership.org data dashboard.</t>
+  </si>
+  <si>
+    <t>Assistant Professor and Associate Director</t>
+  </si>
+  <si>
+    <t>Data Science and Information Systems department.</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -607,7 +607,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
